--- a/Output/Count_Negbin_models_svy.xlsx
+++ b/Output/Count_Negbin_models_svy.xlsx
@@ -626,7 +626,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -651,7 +651,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -676,7 +676,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -701,7 +701,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -776,7 +776,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -801,7 +801,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -826,7 +826,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -851,7 +851,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -876,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -901,7 +901,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -926,7 +926,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -951,7 +951,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -976,7 +976,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -1001,7 +1001,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -1026,7 +1026,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -1051,7 +1051,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -1076,7 +1076,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -1101,7 +1101,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -1126,7 +1126,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -1426,7 +1426,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -1451,7 +1451,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -1476,7 +1476,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -1501,7 +1501,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -1576,7 +1576,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -1601,7 +1601,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -1626,7 +1626,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -1651,7 +1651,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -1676,7 +1676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -1701,7 +1701,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -1726,7 +1726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -1751,7 +1751,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -1776,7 +1776,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -1801,7 +1801,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -1826,7 +1826,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -1851,7 +1851,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -1876,7 +1876,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -1901,7 +1901,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -1926,7 +1926,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -2276,7 +2276,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B13">
@@ -2301,7 +2301,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B14">
@@ -2326,7 +2326,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B15">
@@ -2351,7 +2351,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B16">
@@ -2426,7 +2426,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B19">
@@ -2451,7 +2451,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B20">
@@ -2476,7 +2476,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B21">
@@ -2501,7 +2501,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B22">
@@ -2526,7 +2526,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B23">
@@ -2551,7 +2551,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B24">
@@ -2576,7 +2576,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B25">
@@ -2601,7 +2601,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B26">
@@ -2626,7 +2626,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B27">
@@ -2651,7 +2651,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B28">
@@ -2676,7 +2676,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B29">
@@ -2701,7 +2701,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B30">
@@ -2726,7 +2726,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B31">
@@ -2751,7 +2751,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B32">
@@ -2776,7 +2776,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B33">
@@ -3076,7 +3076,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -3101,7 +3101,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -3126,7 +3126,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -3151,7 +3151,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -3226,7 +3226,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -3251,7 +3251,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -3276,7 +3276,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -3301,7 +3301,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -3326,7 +3326,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -3351,7 +3351,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -3376,7 +3376,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -3401,7 +3401,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -3426,7 +3426,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -3451,7 +3451,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -3476,7 +3476,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -3501,7 +3501,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -3526,7 +3526,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -3551,7 +3551,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -3576,7 +3576,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -3876,7 +3876,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -3901,7 +3901,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -3926,7 +3926,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -3951,7 +3951,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -4026,7 +4026,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -4051,7 +4051,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -4076,7 +4076,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -4101,7 +4101,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -4126,7 +4126,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -4151,7 +4151,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -4176,7 +4176,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -4201,7 +4201,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -4226,7 +4226,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -4251,7 +4251,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -4276,7 +4276,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -4301,7 +4301,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -4326,7 +4326,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -4351,7 +4351,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -4376,7 +4376,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
